--- a/Simulator.xlsx
+++ b/Simulator.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\EXCEL\H6G50100\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SHI\source\repos\MKCC0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB216849-9394-4EE2-97C7-A9D4A9E25C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{864B6822-6A2E-4E23-ABBD-4717A48E485A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-18120" windowWidth="29040" windowHeight="17520" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="座標系・変数名" sheetId="1" r:id="rId1"/>
@@ -32,8 +32,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -41,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="190">
   <si>
     <t>パラメータ</t>
     <phoneticPr fontId="1"/>
@@ -1499,6 +1497,26 @@
     <rPh sb="9" eb="10">
       <t>アタイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Zbase</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rbase</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Nttl_bh</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Nbhb_base</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Nbhm_base</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1541,7 +1559,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1563,6 +1581,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1631,7 +1655,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1651,6 +1675,9 @@
     <xf numFmtId="177" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2655,8 +2682,8 @@
       <xdr:rowOff>4523</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2945575" cy="368562"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="テキスト ボックス 9">
@@ -2698,6 +2725,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -2753,7 +2781,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -2766,7 +2794,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -2778,7 +2806,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -2794,7 +2822,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -2807,7 +2835,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -2821,7 +2849,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -2837,7 +2865,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -2869,7 +2897,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -2883,7 +2911,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -2906,7 +2934,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -2934,7 +2962,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="テキスト ボックス 9">
@@ -3108,8 +3136,8 @@
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="466025" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="14" name="テキスト ボックス 13">
@@ -3151,6 +3179,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -3205,7 +3234,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="14" name="テキスト ボックス 13">
@@ -3692,8 +3721,8 @@
       <xdr:rowOff>34057</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1005916" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="テキスト ボックス 5">
@@ -3805,7 +3834,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="テキスト ボックス 5">
@@ -3909,8 +3938,8 @@
       <xdr:rowOff>41384</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="865173" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="テキスト ボックス 10">
@@ -4077,7 +4106,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="テキスト ボックス 10">
@@ -4184,8 +4213,8 @@
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="466025" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="13" name="テキスト ボックス 12">
@@ -4227,6 +4256,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -4281,7 +4311,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="13" name="テキスト ボックス 12">
@@ -4724,8 +4754,8 @@
       <xdr:rowOff>34057</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1005916" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="テキスト ボックス 9">
@@ -4837,7 +4867,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="テキスト ボックス 9">
@@ -4941,8 +4971,8 @@
       <xdr:rowOff>41384</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="865173" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="テキスト ボックス 10">
@@ -5109,7 +5139,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="テキスト ボックス 10">
@@ -5216,8 +5246,8 @@
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="466025" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="テキスト ボックス 11">
@@ -5259,6 +5289,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -5313,7 +5344,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="テキスト ボックス 11">
@@ -5403,8 +5434,8 @@
       <xdr:rowOff>34057</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1005916" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="テキスト ボックス 1">
@@ -5516,7 +5547,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="テキスト ボックス 1">
@@ -5620,8 +5651,8 @@
       <xdr:rowOff>41384</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="865173" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="テキスト ボックス 2">
@@ -5788,7 +5819,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="テキスト ボックス 2">
@@ -5895,8 +5926,8 @@
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="466025" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="テキスト ボックス 3">
@@ -5938,6 +5969,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -5992,7 +6024,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="テキスト ボックス 3">
@@ -6354,8 +6386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2CF6BDB-659A-4764-84C8-A020DF2BD027}">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6464,7 +6496,9 @@
       <c r="B7" s="18">
         <v>70</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>185</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
         <v>31</v>
@@ -6477,7 +6511,9 @@
       <c r="B8" s="18">
         <v>45</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
         <v>31</v>
@@ -6505,7 +6541,9 @@
       <c r="B10" s="7">
         <v>90</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>187</v>
+      </c>
       <c r="D10" s="2"/>
       <c r="E10" s="11" t="s">
         <v>142</v>
@@ -6624,6 +6662,9 @@
         <f>B9-B23</f>
         <v>72.503503321491891</v>
       </c>
+      <c r="C24" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
@@ -6632,6 +6673,9 @@
       <c r="B25" s="13">
         <f>B10-B24</f>
         <v>17.496496678508109</v>
+      </c>
+      <c r="C25" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.4">
@@ -6745,8 +6789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D415C30-1852-48AC-87AC-AC21546EABAB}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6970,17 +7014,17 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="19">
         <v>24</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2" t="s">
+      <c r="D14" s="19"/>
+      <c r="E14" s="19" t="s">
         <v>40</v>
       </c>
     </row>
@@ -6988,7 +7032,7 @@
       <c r="A15" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="11">
         <v>512</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -7005,7 +7049,7 @@
       <c r="A16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="11">
         <v>4</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -7048,7 +7092,7 @@
       <c r="A19" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="20">
         <v>2</v>
       </c>
       <c r="C19" s="2"/>
@@ -7058,15 +7102,15 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="21">
         <v>128</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2" t="s">
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19" t="s">
         <v>108</v>
       </c>
     </row>
@@ -7157,7 +7201,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>163</v>
       </c>
@@ -7224,7 +7268,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7431,17 +7475,17 @@
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="19">
         <v>24</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2" t="s">
+      <c r="D14" s="19"/>
+      <c r="E14" s="19" t="s">
         <v>137</v>
       </c>
     </row>
@@ -7584,7 +7628,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="20.25" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>163</v>
       </c>
@@ -7649,7 +7693,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7872,15 +7916,15 @@
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
@@ -8014,7 +8058,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="20.25" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>163</v>
       </c>
@@ -8079,7 +8123,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="A14" sqref="A14:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -8279,15 +8323,15 @@
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">

--- a/Simulator.xlsx
+++ b/Simulator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SHI\source\repos\MKCC0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{864B6822-6A2E-4E23-ABBD-4717A48E485A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BECC9968-54F3-4454-A0FE-E68D894DF0BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="座標系・変数名" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="237">
   <si>
     <t>パラメータ</t>
     <phoneticPr fontId="1"/>
@@ -405,20 +405,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ロープ掛け数</t>
-    <rPh sb="3" eb="4">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>スウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Nrope_mh</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Dwire_mh</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1412,14 +1398,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Nrope_bh</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Nrope_sl</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Ta0_sl</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1517,6 +1495,639 @@
   </si>
   <si>
     <t>Nbhm_base</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>√(Lb*Lb+Ha*Ha-2*cos(90°-th0))</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロープ掛け数0</t>
+    <rPh sb="3" eb="4">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロープ掛け数1</t>
+    <rPh sb="3" eb="4">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Nrop0e_mh</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Nrope1_mh</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Nrope0_bh</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Nrope1_bh</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Nrope0_sl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Nrope1_sl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>層付加直径mm</t>
+    <rPh sb="0" eb="1">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>チョッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全スパン（主巻ロープ長）</t>
+    <rPh sb="0" eb="1">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュマキ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>チョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全スパン（走行）</t>
+    <rPh sb="0" eb="1">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ソウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>とりあえず1kmで設定</t>
+    <rPh sb="9" eb="11">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全スパン（旋回）</t>
+    <rPh sb="0" eb="1">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>センカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TTB周長</t>
+    <rPh sb="3" eb="5">
+      <t>シュウチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全スパン（引込）</t>
+    <rPh sb="0" eb="1">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒキコミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R45の時のジブ先高さ</t>
+    <rPh sb="4" eb="5">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R45の時の引込引込層数</t>
+    <rPh sb="4" eb="5">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>ヒキコミヒキコミ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ソウスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R45の時の引込主巻層数</t>
+    <rPh sb="4" eb="5">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒキコミ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュマキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ソウスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>引込ドラム1層巻取り量</t>
+    <rPh sb="0" eb="2">
+      <t>ヒキコミ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>マキト</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>リョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>引込ドラム2層巻取り量</t>
+    <rPh sb="0" eb="2">
+      <t>ヒキコミ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>マキト</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>リョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>引込ドラム3層巻取り量</t>
+    <rPh sb="0" eb="2">
+      <t>ヒキコミ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>マキト</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>リョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>引込ドラム4層巻取り量</t>
+    <rPh sb="0" eb="2">
+      <t>ヒキコミ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>マキト</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>リョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>引込ドラム5層巻取り量</t>
+    <rPh sb="0" eb="2">
+      <t>ヒキコミ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>マキト</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>リョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>引込ドラム6層巻取り量</t>
+    <rPh sb="0" eb="2">
+      <t>ヒキコミ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>マキト</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>リョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロープ掛け数4</t>
+    <rPh sb="3" eb="4">
+      <t>ガ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドラム径×π×(溝数-3)</t>
+    <rPh sb="3" eb="4">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ミゾスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（ドラム径+層付加径）×π×溝数</t>
+    <rPh sb="4" eb="5">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ミゾスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>溝数*3層+4層目のロープ長/4層目ドラム周</t>
+    <rPh sb="0" eb="2">
+      <t>ミゾスウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ソウメ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>チョウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ソウメ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>シュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R45,70mが3層開始位置でドラム回転量を評価</t>
+    <rPh sb="9" eb="10">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カイテン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R45の時の引込ドラム巻取り量+d部ロープ長</t>
+    <rPh sb="4" eb="5">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒキコミ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>マキト</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>チョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R45,70mの時の揚程分主巻ロープ長</t>
+    <rPh sb="8" eb="9">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ヨウテイブン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュマキ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>チョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R45,70mでの主巻ドラム層数</t>
+    <rPh sb="9" eb="11">
+      <t>シュマキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ソウスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4本掛け分</t>
+    <rPh sb="1" eb="2">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高速カウンタ旋回初期値</t>
+    <rPh sb="6" eb="8">
+      <t>センカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>０°</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>引込入限半径30で1.0*10^9</t>
+    <rPh sb="0" eb="2">
+      <t>ヒキコミ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ゲン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ハンケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>引込入限時d</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>引込入時ドラム巻取量</t>
+    <rPh sb="0" eb="2">
+      <t>ヒキコミ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>マキト</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>リョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>引込入時ドラム回転数</t>
+    <rPh sb="0" eb="2">
+      <t>ヒキコミ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>カイテンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高速カウンタ引込初期値(R45）</t>
+    <rPh sb="6" eb="8">
+      <t>ヒキコミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4×溝数＋(ドラム巻取り量－4層積算巻取量）/5層巻取量×溝数）</t>
+    <rPh sb="2" eb="4">
+      <t>ミゾスウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>マキト</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>セキサン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>マキト</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>マキト</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ミゾスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高速カウンタ主巻初期値(R45,H70)</t>
+    <rPh sb="0" eb="2">
+      <t>コウソク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュマキ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ショキアタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高巻非常限98.4m</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高巻非常限から70mへの繰出量</t>
+    <rPh sb="0" eb="1">
+      <t>コウ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>マキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒジョウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ゲン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>リョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高巻非常限から70mへのドラム回転</t>
+    <rPh sb="0" eb="1">
+      <t>コウ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>マキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒジョウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ゲン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カイテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R45,70mから導出　主巻ドラム３巻開始位置</t>
+    <rPh sb="9" eb="11">
+      <t>ドウシュツ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シュマキ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>マキ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>イチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2層溝数+1層分</t>
+    <rPh sb="1" eb="2">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ミゾスウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10^9-70mまでのドラム回転量*PG1周カウント*減速比</t>
+    <rPh sb="14" eb="17">
+      <t>カイテンリョウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>シュウ</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>ゲンソクヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R45,70mをプリセットポイントとした</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アブソコーダ初期値(R45,H70)</t>
+    <rPh sb="6" eb="8">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>アタイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1524,9 +2135,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="177" formatCode="0;&quot;▲ &quot;0"/>
+    <numFmt numFmtId="181" formatCode="0.00000_ "/>
+    <numFmt numFmtId="182" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -1655,7 +2268,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1678,6 +2291,14 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="181" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1748,16 +2369,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1514476</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>346629</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>178906</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2714626</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>233173</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>188432</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>133782</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1780,14 +2401,566 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6048376" y="3133726"/>
-          <a:ext cx="4400550" cy="3528822"/>
+          <a:off x="8082586" y="3301449"/>
+          <a:ext cx="4397237" cy="3557811"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3177334</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>24848</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>679174</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>8283</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="フリーフォーム: 図形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1041FB4-9DBC-4D22-AE3F-CDE02056F2E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10913291" y="6990522"/>
+          <a:ext cx="1369818" cy="1664804"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 3187 w 1369818"/>
+            <a:gd name="connsiteY0" fmla="*/ 1664804 h 1664804"/>
+            <a:gd name="connsiteX1" fmla="*/ 1369818 w 1369818"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 1664804"/>
+            <a:gd name="connsiteX2" fmla="*/ 3187 w 1369818"/>
+            <a:gd name="connsiteY2" fmla="*/ 960782 h 1664804"/>
+            <a:gd name="connsiteX3" fmla="*/ 3187 w 1369818"/>
+            <a:gd name="connsiteY3" fmla="*/ 1664804 h 1664804"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="1369818" h="1664804">
+              <a:moveTo>
+                <a:pt x="3187" y="1664804"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="1369818" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="3187" y="960782"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="426" y="1209260"/>
+                <a:pt x="-2334" y="1457739"/>
+                <a:pt x="3187" y="1664804"/>
+              </a:cubicBezTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>132522</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>91108</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>405848</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>157370</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AAD70E8-E6E8-4A69-9F58-C758C41E0C25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11049000" y="7296978"/>
+          <a:ext cx="273326" cy="306457"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ｄ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>231913</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>24848</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>8283</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直線矢印コネクタ 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CCCE9C9-0744-4463-93B8-A5DB83E77C2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10916478" y="8638761"/>
+          <a:ext cx="1399761" cy="16565"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>588065</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>41413</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>405847</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>107674</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="テキスト ボックス 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D4486C8-68D6-4DA0-AF6A-5EABF36269EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11504543" y="8688456"/>
+          <a:ext cx="505239" cy="306457"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>30m</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3023152</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>8282</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3023152</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>207065</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直線矢印コネクタ 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45677D85-0882-46F3-A16B-1F4303EA89C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10759109" y="7934739"/>
+          <a:ext cx="0" cy="679174"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2377108</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>215347</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2882347</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>41413</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="テキスト ボックス 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78E381AC-70AD-47DC-9D4A-CB51BA95A89A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10113065" y="8141804"/>
+          <a:ext cx="505239" cy="306457"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>35m</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>66261</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>99391</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>115957</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>16566</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直線矢印コネクタ 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{506FBF69-0CB9-49F1-A1F2-3426FBC0DFA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10982739" y="7065065"/>
+          <a:ext cx="1424609" cy="1598544"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>82826</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>198782</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>588065</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>24848</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="テキスト ボックス 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C503D885-51A0-472A-B1A2-AD3DFF5F446E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11686761" y="7885043"/>
+          <a:ext cx="505239" cy="306457"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>84m</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2152,7 +3325,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1509560</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>34057</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1005916" cy="172227"/>
@@ -2368,7 +3541,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>117445</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>41384</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="865173" cy="172227"/>
@@ -2678,7 +3851,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>838148</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>4523</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2945575" cy="368562"/>
@@ -3132,7 +4305,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1720412</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="466025" cy="172227"/>
@@ -3315,13 +4488,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>44902</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>84116</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>27212</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3364,13 +4537,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>169807</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>142876</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>27918</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -3386,7 +4559,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10409182" y="5143501"/>
+          <a:off x="10409182" y="5381626"/>
           <a:ext cx="1229711" cy="638174"/>
           <a:chOff x="10428232" y="3006944"/>
           <a:chExt cx="1229711" cy="630622"/>
@@ -3717,7 +4890,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1509560</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>34057</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1005916" cy="172227"/>
@@ -3934,7 +5107,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>117445</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>41384</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="865173" cy="172227"/>
@@ -4209,7 +5382,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1720412</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="466025" cy="172227"/>
@@ -4397,13 +5570,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>169807</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>27918</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -4419,7 +5592,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10866382" y="5029200"/>
+          <a:off x="10866382" y="5267325"/>
           <a:ext cx="1429736" cy="752475"/>
           <a:chOff x="10428232" y="3006944"/>
           <a:chExt cx="1229711" cy="630622"/>
@@ -4750,7 +5923,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1509560</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>34057</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1005916" cy="172227"/>
@@ -4967,7 +6140,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>117445</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>41384</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="865173" cy="172227"/>
@@ -5242,7 +6415,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1720412</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="466025" cy="172227"/>
@@ -5430,7 +6603,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1509560</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>34057</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1005916" cy="172227"/>
@@ -5647,7 +6820,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>117445</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>41384</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="865173" cy="172227"/>
@@ -5922,7 +7095,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1720412</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="466025" cy="172227"/>
@@ -6384,16 +7557,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2CF6BDB-659A-4764-84C8-A020DF2BD027}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="42" customWidth="1"/>
     <col min="5" max="5" width="41.75" customWidth="1"/>
@@ -6418,13 +7591,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B2" s="18">
         <v>70</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
@@ -6448,22 +7621,22 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B4" s="7">
         <v>3652</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B5" s="2">
         <v>6</v>
@@ -6471,22 +7644,22 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
@@ -6497,7 +7670,7 @@
         <v>70</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
@@ -6512,7 +7685,7 @@
         <v>45</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
@@ -6521,47 +7694,47 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B9" s="2">
         <v>83.3</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B10" s="7">
         <v>90</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B11" s="2">
         <v>-1.65</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
@@ -6573,208 +7746,495 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B16">
         <f>ACOS(30/B3)</f>
         <v>1.2055891055045298</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B17">
         <f>SQRT(B3*B3+35*35-2*B3*35*COS(0.5*PI()-B16))</f>
         <v>52.808970176843545</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D17" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B18">
         <f>ACOS(B8/B3)</f>
         <v>1.0054428965575637</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B19">
         <f>SQRT(B3*B3+35*35-2*B3*35*COS(0.5*PI()-B18))</f>
         <v>57.584129972020122</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B20">
-        <f>(B9+3)/引込!B12</f>
+        <f>(B9+3)/引込!B13</f>
         <v>4.1095238095238091</v>
       </c>
       <c r="C20" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>137</v>
+      </c>
+      <c r="B21">
+        <f>引込!B5+引込!B25*2*3</f>
+        <v>969.41531628991834</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
         <v>139</v>
-      </c>
-      <c r="B21">
-        <f>引込!B5+引込!B24*2*3</f>
-        <v>844.70765814495917</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
-        <v>141</v>
       </c>
       <c r="B22">
         <f>(B19-B17)*6</f>
         <v>28.650958771059464</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B23">
         <f>B22/(B21/1000*PI())</f>
-        <v>10.796496678508111</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+        <v>9.4076122712558607</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B24" s="13">
         <f>B9-B23</f>
-        <v>72.503503321491891</v>
+        <v>73.89238772874414</v>
       </c>
       <c r="C24" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B25" s="13">
         <f>B10-B24</f>
-        <v>17.496496678508109</v>
+        <v>16.10761227125586</v>
       </c>
       <c r="C25" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>203</v>
+      </c>
+      <c r="B26" s="23">
+        <f>B24/引込!B13</f>
+        <v>3.5186851299401973</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>147</v>
-      </c>
-      <c r="B27">
+        <v>204</v>
+      </c>
+      <c r="B27" s="23">
+        <f>B25/主巻!B14</f>
+        <v>0.76702915577408859</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>205</v>
+      </c>
+      <c r="B28">
+        <f>引込!B5/1000*PI()*(引込!B13-3)</f>
+        <v>40.715040790523723</v>
+      </c>
+      <c r="D28" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>206</v>
+      </c>
+      <c r="B29">
+        <f>(引込!B5+引込!B25)*PI()/1000*引込!B13</f>
+        <v>50.243345560999806</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>207</v>
+      </c>
+      <c r="B30">
+        <f>(引込!B5+引込!B25*2)*PI()/1000*引込!B13</f>
+        <v>52.985810199721953</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>208</v>
+      </c>
+      <c r="B31">
+        <f>(引込!B5+引込!B25*3)*PI()/1000*引込!B13</f>
+        <v>55.728274838444086</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>209</v>
+      </c>
+      <c r="B32">
+        <f>(引込!B5+引込!B25*4)*PI()/1000*引込!B13</f>
+        <v>58.470739477166219</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>210</v>
+      </c>
+      <c r="B33">
+        <f>(引込!B5+引込!B25*5)*PI()/1000*引込!B13</f>
+        <v>61.21320411588836</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>145</v>
+      </c>
+      <c r="B35">
         <f>B3*(SIN(B18)-SIN(B16))</f>
         <v>-7.530638478510788</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
-        <v>148</v>
-      </c>
-      <c r="B28">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>146</v>
+      </c>
+      <c r="B36">
         <f>B22/4</f>
         <v>7.1627396927648661</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>147</v>
+      </c>
+      <c r="B37" s="12">
+        <f>B7-B11+B35+B36</f>
+        <v>71.282101214254084</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>148</v>
+      </c>
+      <c r="B38">
+        <f>B37*4</f>
+        <v>285.12840485701633</v>
+      </c>
+      <c r="D38" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
         <v>149</v>
       </c>
-      <c r="B29" s="12">
-        <f>B7-B11+B27+B28</f>
-        <v>71.282101214254084</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A30" t="s">
+      <c r="B39">
+        <f>主巻!B5*PI()*(主巻!B13-3)/1000</f>
+        <v>60.770968291040951</v>
+      </c>
+      <c r="D39" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
         <v>150</v>
       </c>
-      <c r="B30">
-        <f>B29*4</f>
-        <v>285.12840485701633</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
+      <c r="B40">
+        <f>(主巻!B5+主巻!B27)*PI()*主巻!B13/1000</f>
+        <v>71.09221058220642</v>
+      </c>
+      <c r="D40" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
         <v>151</v>
       </c>
-      <c r="B31">
-        <f>主巻!B5*PI()*(主巻!B12-3)/1000</f>
-        <v>60.770968291040951</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A32" t="s">
+      <c r="B41">
+        <f>(主巻!B5+主巻!B27*2)*PI()*主巻!B13/1000</f>
+        <v>75.53239142585177</v>
+      </c>
+      <c r="D41" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
         <v>152</v>
       </c>
-      <c r="B32">
-        <f>(主巻!B5+主巻!B26*2)*PI()*主巻!B12/1000</f>
-        <v>71.09221058220642</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
+      <c r="B42">
+        <f>(主巻!B5+主巻!B27*3)*PI()*主巻!B13/1000</f>
+        <v>79.972572269497149</v>
+      </c>
+      <c r="D42" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
         <v>153</v>
       </c>
-      <c r="B33">
-        <f>(主巻!B5+主巻!B26*2*2)*PI()*主巻!B12/1000</f>
-        <v>75.53239142585177</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A34" t="s">
+      <c r="B43">
+        <f>(主巻!B5+主巻!B27*4)*PI()*主巻!B13/1000</f>
+        <v>84.4127531131425</v>
+      </c>
+      <c r="D43" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
         <v>154</v>
       </c>
-      <c r="B34">
-        <f>(主巻!B5+主巻!B26*3*2)*PI()*主巻!B12/1000</f>
-        <v>79.972572269497149</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
+      <c r="B44">
+        <f>(主巻!B5+主巻!B27*5)*PI()*主巻!B13/1000</f>
+        <v>88.852933956787879</v>
+      </c>
+      <c r="D44" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
         <v>155</v>
       </c>
-      <c r="B35">
-        <f>(主巻!B5+主巻!B26*4*2)*PI()*主巻!B12/1000</f>
-        <v>84.4127531131425</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A36" t="s">
-        <v>156</v>
-      </c>
-      <c r="B36">
-        <f>(主巻!B5+主巻!B26*5*2)*PI()*主巻!B12/1000</f>
-        <v>88.852933956787879</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A37" t="s">
-        <v>157</v>
-      </c>
-      <c r="B37" s="13">
-        <f>主巻!B12*3 +(B30-B31-B32-B33)/((主巻!B5+3*主巻!B26)*PI()/1000)</f>
-        <v>138.05010808246129</v>
+      <c r="B45" s="13">
+        <f>主巻!B13*3</f>
+        <v>102</v>
+      </c>
+      <c r="D45" t="s">
+        <v>214</v>
+      </c>
+      <c r="E45" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>218</v>
+      </c>
+      <c r="B46" s="25">
+        <f>B45/主巻!B13</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>202</v>
+      </c>
+      <c r="B48">
+        <f>B3*SIN(B18)+35</f>
+        <v>105.92954250522133</v>
+      </c>
+      <c r="F48">
+        <f>17408/34</f>
+        <v>512</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>217</v>
+      </c>
+      <c r="B49" s="22">
+        <f>(B48-B2)*4</f>
+        <v>143.71817002088534</v>
+      </c>
+      <c r="D49" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>196</v>
+      </c>
+      <c r="B51" s="13">
+        <f>B39+B40+B25*引込!B5/1000*PI()+B49</f>
+        <v>312.01590948647288</v>
+      </c>
+      <c r="D51" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>201</v>
+      </c>
+      <c r="B52" s="26">
+        <f>B19*引込!B7+B28+B29+B30+B31*(B26-3)</f>
+        <v>518.35440385928769</v>
+      </c>
+      <c r="C52"/>
+      <c r="D52" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
+        <v>199</v>
+      </c>
+      <c r="B53" s="26">
+        <f>PI()*B4/1000</f>
+        <v>11.473096370909925</v>
+      </c>
+      <c r="D53" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
+        <v>197</v>
+      </c>
+      <c r="B54" s="27">
+        <v>1000</v>
+      </c>
+      <c r="D54" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>230</v>
+      </c>
+      <c r="B57">
+        <f>(98.4-70)*4</f>
+        <v>113.60000000000002</v>
+      </c>
+      <c r="D57" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>231</v>
+      </c>
+      <c r="B58">
+        <f>主巻!B13+(B57-B40)/(PI()*主巻!B5/1000)</f>
+        <v>55.683733351766705</v>
+      </c>
+      <c r="D58" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
+        <v>228</v>
+      </c>
+      <c r="B59" s="13">
+        <f>10^9-B58*主巻!B16*主巻!B17*主巻!B4</f>
+        <v>996450039.94008136</v>
+      </c>
+      <c r="D59" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A60" t="s">
+        <v>236</v>
+      </c>
+      <c r="B60" s="13">
+        <v>50000</v>
+      </c>
+      <c r="D60" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A61" t="s">
+        <v>223</v>
+      </c>
+      <c r="B61">
+        <f>B17</f>
+        <v>52.808970176843545</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
+        <v>224</v>
+      </c>
+      <c r="B62">
+        <f>B52-B61*引込!B7</f>
+        <v>201.50058279822645</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A63" t="s">
+        <v>225</v>
+      </c>
+      <c r="B63">
+        <f>4*引込!B13+(B62-B28-B29-B30-B31)/B32*引込!B13</f>
+        <v>84.656573525878983</v>
+      </c>
+      <c r="D63" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A64" t="s">
+        <v>226</v>
+      </c>
+      <c r="B64" s="13">
+        <f>86673*1000-B23*引込!B16*引込!B17*引込!B4</f>
+        <v>85167878.370548725</v>
+      </c>
+      <c r="D64" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A65" t="s">
+        <v>220</v>
+      </c>
+      <c r="B65" s="13">
+        <v>15000000</v>
+      </c>
+      <c r="D65" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -6787,10 +8247,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D415C30-1852-48AC-87AC-AC21546EABAB}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:E20"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6804,7 +8264,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -6827,7 +8287,7 @@
         <v>750</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>16</v>
@@ -6872,13 +8332,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B5" s="3">
         <v>624</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
@@ -6887,13 +8347,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B6" s="3">
         <v>720</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
@@ -6902,13 +8362,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>46</v>
+        <v>187</v>
       </c>
       <c r="B7" s="2">
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>47</v>
+        <v>189</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
@@ -6917,33 +8377,31 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>87</v>
+        <v>188</v>
       </c>
       <c r="B8" s="2">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>38</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B9" s="2">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>37</v>
@@ -6951,16 +8409,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B10" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="D10" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>37</v>
@@ -6968,16 +8426,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B11" s="2">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>37</v>
@@ -6985,78 +8443,78 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B12" s="2">
-        <v>34</v>
+        <v>2.5</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="E12" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B13" s="2">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" s="2">
+        <v>21</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A14" s="19" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B15" s="19">
         <v>24</v>
       </c>
-      <c r="C14" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19" t="s">
+      <c r="C15" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A15" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B15" s="11">
-        <v>512</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="B16" s="11">
-        <v>4</v>
+        <v>512</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>34</v>
@@ -7064,196 +8522,213 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B17" s="2">
-        <v>100000000</v>
-      </c>
-      <c r="C17" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="B17" s="11">
+        <v>4</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="D17" s="2" t="s">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="20">
-        <v>2</v>
+        <v>99</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="2" t="s">
-        <v>108</v>
-      </c>
+      <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="20">
+        <v>2</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A21" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="21">
+      <c r="B21" s="21">
         <v>128</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A21" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B21" s="3">
-        <v>1024</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>108</v>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B22" s="3">
-        <v>50000</v>
-      </c>
-      <c r="C22" s="2"/>
+        <v>1024</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="D22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B23" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23" s="3">
+        <v>50000</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A24" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A25" s="5"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A26" s="7" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A24" s="5"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A25" s="7" t="s">
+      <c r="B26" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="D26" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="E26" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F25" s="5"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A26" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="2">
-        <f>12*SQRT(3)</f>
-        <v>20.784609690826528</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="F26" s="5"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c r="B27" s="2">
+        <f>2*B15/2*SQRT(3)</f>
+        <v>41.569219381653056</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A28" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B28" s="2">
         <f>B3*1000/(2*PI()*B2/60)</f>
         <v>2801.1269984173578</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B28" s="2">
-        <f>70*1000*9.81*(PI()*B5/1000)*(B2/60/B4)/B7/1000</f>
-        <v>135.14076156250493</v>
-      </c>
       <c r="C28" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B29" s="2">
-        <f>70*1000*B5/1000/2/B7/B4</f>
-        <v>175.39914549134247</v>
-      </c>
-      <c r="C29" s="2"/>
+        <f>70*1000*9.81*(PI()*B5/1000)*(B2/60/B4)/B8/1000</f>
+        <v>270.28152312500987</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>159</v>
+      </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B30" s="2">
-        <f>B27*0.5/(2*PI()*B2/60/B8)</f>
+        <f>70*1000*B5/1000/2/B8/B4</f>
+        <v>350.79829098268493</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A31" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B31" s="2">
+        <f>B28*0.5/(2*PI()*B2/60/B9)</f>
         <v>26.748792481577169</v>
       </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E30" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E31" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -7265,10 +8740,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{882160A8-C90F-4D71-844D-9736FC79A859}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7304,7 +8779,7 @@
         <v>1750</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>16</v>
@@ -7340,76 +8815,76 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B5" s="2">
         <v>720</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>46</v>
+        <v>187</v>
       </c>
       <c r="B7" s="2">
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>87</v>
+        <v>188</v>
       </c>
       <c r="B8" s="2">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>132</v>
+        <v>192</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>37</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>104</v>
+        <v>85</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1.5</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
@@ -7418,13 +8893,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B10" s="2">
-        <v>1.5</v>
+        <v>86</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>55</v>
+        <v>129</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
@@ -7433,13 +8908,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>104</v>
+        <v>87</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1.5</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>133</v>
+        <v>53</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
@@ -7448,71 +8923,71 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B12" s="2">
-        <v>21</v>
+        <v>88</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>137</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
+      </c>
+      <c r="B13" s="2">
+        <v>21</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B15" s="19">
         <v>24</v>
       </c>
-      <c r="C14" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A15" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B15" s="2">
-        <v>512</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2" t="s">
-        <v>4</v>
+      <c r="C15" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="B16" s="2">
-        <v>4</v>
+        <v>512</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
@@ -7521,164 +8996,179 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="B17" s="2">
-        <v>86673</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2" t="s">
-        <v>21</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
+      </c>
+      <c r="B18" s="2">
+        <v>86673</v>
       </c>
       <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="2">
-        <v>0</v>
+        <v>99</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B20" s="2">
-        <v>44.3</v>
+        <v>0</v>
       </c>
       <c r="C20" s="2"/>
-      <c r="D20" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B21" s="2">
-        <v>83.3</v>
+        <v>44.3</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
+      <c r="A22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="2">
+        <v>83.3</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="5"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="D24" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="E24" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A24" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="2">
-        <f>12*SQRT(3)</f>
-        <v>20.784609690826528</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c r="B25" s="2">
+        <f>2*B15/2*SQRT(3)</f>
+        <v>41.569219381653056</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B26" s="2">
         <f>B3*1000/(2*PI()*B2/60)</f>
         <v>491.10668154070567</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>168</v>
-      </c>
       <c r="C26" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C27" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>159</v>
+      </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B28" s="2">
-        <f>B25*0.5/(2*PI()*B5/60/B10)</f>
+        <v>162</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B29" s="2">
+        <f>B26*0.5/(2*PI()*B5/60/B11)</f>
         <v>4.8851284970412863</v>
       </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E28" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E29" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -7690,10 +9180,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E54A1C-85C0-472C-BC65-E4606300F965}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7731,7 +9221,7 @@
         <v>1800</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>16</v>
@@ -7748,7 +9238,7 @@
         <v>33</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>17</v>
@@ -7765,93 +9255,91 @@
         <v>479.4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B5" s="2">
         <v>330</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B6" s="2">
         <v>3652</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>46</v>
+        <v>187</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B8" s="3">
-        <v>12</v>
+        <v>188</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>175</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>8</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B9" s="3">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>8</v>
@@ -7859,16 +9347,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B10" s="3">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>8</v>
@@ -7876,16 +9364,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B11" s="3">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>8</v>
@@ -7893,63 +9381,65 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="B12" s="3">
+        <v>20</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>172</v>
+      </c>
       <c r="E12" s="2" t="s">
-        <v>137</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A15" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B15" s="2">
-        <v>512</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="B15" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="B16" s="2">
-        <v>4</v>
+        <v>512</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
@@ -7958,137 +9448,141 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="B17" s="2">
-        <v>15000000</v>
-      </c>
-      <c r="C17" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B18">
-        <v>20432688.640000001</v>
+        <v>58</v>
+      </c>
+      <c r="B18" s="2">
+        <v>15000000</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>73</v>
+        <v>59</v>
+      </c>
+      <c r="B19">
+        <v>20432688.640000001</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2" t="s">
+      <c r="B21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A21" s="14" t="s">
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A22" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14" t="s">
+      <c r="B22" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="14"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
+      <c r="E22" s="14"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A24" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="B23" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="D23" s="15" t="s">
+      <c r="D24" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E24" s="15" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A24" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B25" s="2">
+        <v>27</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A26" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B26" s="2">
         <f>B3*1000/(2*PI()*B2/60)</f>
         <v>175.07043740108489</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C26" s="2"/>
+      <c r="C26" s="2" t="s">
+        <v>156</v>
+      </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -8096,19 +9590,30 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B28" s="2">
-        <f>B25*0.5/(2*PI()*B5/60/B10)</f>
+        <v>162</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A29" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B29" s="2">
+        <f>B26*0.5/(2*PI()*B5/60/B11)</f>
         <v>30.396355092701338</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E28" s="2"/>
+      <c r="C29" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E29" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -8120,10 +9625,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4513790E-8CAC-4479-ACFA-40697550443D}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:E14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -8161,13 +9666,13 @@
         <v>1700</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F2" t="e">
         <f>B2/60/B4*PI()*#REF!/1000</f>
@@ -8183,10 +9688,10 @@
         <v>44</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>34</v>
@@ -8200,18 +9705,18 @@
         <v>88</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B5" s="2">
         <v>500</v>
@@ -8219,15 +9724,15 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -8235,7 +9740,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>46</v>
+        <v>187</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>
@@ -8246,20 +9751,18 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B8" s="3">
-        <v>9</v>
+        <v>188</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
-        <v>181</v>
-      </c>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B9" s="3">
         <v>9</v>
@@ -8267,89 +9770,91 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B10" s="3">
         <v>9</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
-        <v>182</v>
-      </c>
+      <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B11" s="3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>73</v>
+        <v>88</v>
+      </c>
+      <c r="B12" s="3">
+        <v>5</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A15" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A15" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="B15" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -8357,10 +9862,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
-        <v>184</v>
+        <v>11</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -8368,10 +9873,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B18" t="s">
-        <v>168</v>
+        <v>180</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -8379,10 +9884,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>73</v>
+        <v>180</v>
+      </c>
+      <c r="B19" t="s">
+        <v>166</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -8390,94 +9895,94 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A21" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>73</v>
+      <c r="A21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
+      <c r="A22" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="B23" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="D23" s="15" t="s">
+      <c r="D24" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E24" s="15" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A24" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B25" s="2">
+        <v>27</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B26" s="2">
         <f>B3*1000/(2*PI()*B2/60)</f>
         <v>247.15826456623751</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A26" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C26" s="2"/>
+      <c r="C26" s="2" t="s">
+        <v>156</v>
+      </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -8485,19 +9990,30 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B28" s="2">
-        <f>B25*0.5/(2*PI()*B2/60/B10)</f>
+        <v>162</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B29" s="2">
+        <f>B26*0.5/(2*PI()*B2/60/B11)</f>
         <v>6.2475553373925941</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E28" s="2"/>
+      <c r="C29" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E29" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Simulator.xlsx
+++ b/Simulator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SHI\source\repos\MKCC0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BECC9968-54F3-4454-A0FE-E68D894DF0BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303677DB-8F79-446A-B4A3-CC480C3FA94A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36225" yWindow="255" windowWidth="18255" windowHeight="14085" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="座標系・変数名" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="242">
   <si>
     <t>パラメータ</t>
     <phoneticPr fontId="1"/>
@@ -398,13 +398,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/回転</t>
-    <rPh sb="1" eb="3">
-      <t>カイテン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Dwire_mh</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -450,26 +443,6 @@
   </si>
   <si>
     <t>dRwire_bh</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>旋回0°カウント値</t>
-    <rPh sb="0" eb="2">
-      <t>センカイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>アタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>旋回180°カウント値</t>
-    <rPh sb="0" eb="2">
-      <t>センカイ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>アタイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -508,14 +481,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>PgCntR_sl</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PgMul_sl</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>TTB直径</t>
     <rPh sb="3" eb="5">
       <t>チョッケイ</t>
@@ -563,17 +528,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>PLCラダー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>計算値</t>
-    <rPh sb="0" eb="3">
-      <t>ケイサンアタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Gr_gt</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -699,23 +653,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アブソコーダカウント/回転</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>PGプリセット0カウント</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>PGプリセット1カウント</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ラダープログラム</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>高巻1範囲非常上限</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1471,13 +1413,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>プリセットカウント値</t>
-    <rPh sb="9" eb="10">
-      <t>アタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Zbase</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1815,28 +1750,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>R45,70mが3層開始位置でドラム回転量を評価</t>
-    <rPh sb="9" eb="10">
-      <t>ソウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>カイシ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>イチ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>カイテン</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>リョウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ヒョウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>R45の時の引込ドラム巻取り量+d部ロープ長</t>
     <rPh sb="4" eb="5">
       <t>トキ</t>
@@ -1909,22 +1822,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>引込入限半径30で1.0*10^9</t>
-    <rPh sb="0" eb="2">
-      <t>ヒキコミ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ゲン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ハンケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>引込入限時d</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2069,25 +1966,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>R45,70mから導出　主巻ドラム３巻開始位置</t>
-    <rPh sb="9" eb="11">
-      <t>ドウシュツ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>シュマキ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>マキ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>カイシ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>イチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>2層溝数+1層分</t>
     <rPh sb="1" eb="2">
       <t>ソウ</t>
@@ -2104,29 +1982,188 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>10^9-70mまでのドラム回転量*PG1周カウント*減速比</t>
-    <rPh sb="14" eb="17">
+    <t>R45,70mをプリセットポイントとした</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50m</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主巻アブソコーダ初期値(R45,H70)</t>
+    <rPh sb="0" eb="2">
+      <t>シュマキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>走行アブソコーダ初期値</t>
+    <rPh sb="0" eb="2">
+      <t>ソウコウ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ショキチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>旋回PG初期値</t>
+    <rPh sb="0" eb="2">
+      <t>センカイ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ショキアタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10^8 -70mまでのドラム回転量*PG1周カウント*減速比</t>
+    <rPh sb="15" eb="18">
       <t>カイテンリョウ</t>
     </rPh>
-    <rPh sb="21" eb="22">
+    <rPh sb="22" eb="23">
       <t>シュウ</t>
     </rPh>
-    <rPh sb="27" eb="30">
+    <rPh sb="28" eb="31">
       <t>ゲンソクヒ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>R45,70mをプリセットポイントとした</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アブソコーダ初期値(R45,H70)</t>
-    <rPh sb="6" eb="8">
-      <t>ショキ</t>
-    </rPh>
+    <t>アブソコーダカウント/ドラム回転</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/ドラム回転</t>
+    <rPh sb="4" eb="6">
+      <t>カイテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PGドラムカウント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドラム1回転でのPGカウント</t>
+    <rPh sb="4" eb="6">
+      <t>カイテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>引込入限半径30で1.0*10^8</t>
+    <rPh sb="0" eb="2">
+      <t>ヒキコミ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ゲン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ハンケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PGプリセット0ドラム回転数</t>
+  </si>
+  <si>
+    <t>PGプリセット0ドラム回転数</t>
+    <rPh sb="11" eb="14">
+      <t>カイテンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PGプリセット0ドラム回転数</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0m</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アブソコーダプリセット0ドラム回転数</t>
+    <rPh sb="15" eb="18">
+      <t>カイテンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高巻1範囲非常上限98.4m</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R45,0mが3層開始位置(プリセット）でドラム回転量を評価</t>
     <rPh sb="8" eb="9">
-      <t>アタイ</t>
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カイテン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒョウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R45,70mから導出　</t>
+    <rPh sb="9" eb="11">
+      <t>ドウシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アブソコーダプリセットドラム回転数</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>溝数×2 　3 層開始位置</t>
+    <rPh sb="0" eb="2">
+      <t>ミゾスウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>カイシイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高巻非常限かのドラム回転</t>
+    <rPh sb="0" eb="1">
+      <t>コウ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>マキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒジョウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ゲン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カイテン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2138,8 +2175,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="177" formatCode="0;&quot;▲ &quot;0"/>
-    <numFmt numFmtId="181" formatCode="0.00000_ "/>
-    <numFmt numFmtId="182" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="0.00000_ "/>
+    <numFmt numFmtId="183" formatCode="0.000000_ "/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -2204,7 +2241,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -2225,19 +2262,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -2283,22 +2307,22 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="181" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -3325,7 +3349,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1509560</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>34057</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1005916" cy="172227"/>
@@ -3541,7 +3565,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>117445</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>41384</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="865173" cy="172227"/>
@@ -3851,7 +3875,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>838148</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>4523</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2945575" cy="368562"/>
@@ -4305,7 +4329,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1720412</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="466025" cy="172227"/>
@@ -4488,13 +4512,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>44902</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>84116</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>27212</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4537,13 +4561,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>169807</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>142876</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>27918</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -4559,7 +4583,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10409182" y="5381626"/>
+          <a:off x="10447282" y="6810376"/>
           <a:ext cx="1229711" cy="638174"/>
           <a:chOff x="10428232" y="3006944"/>
           <a:chExt cx="1229711" cy="630622"/>
@@ -4890,7 +4914,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1509560</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>34057</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1005916" cy="172227"/>
@@ -5107,7 +5131,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>117445</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>41384</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="865173" cy="172227"/>
@@ -5382,7 +5406,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1720412</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="466025" cy="172227"/>
@@ -5570,13 +5594,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>169807</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>27918</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -5592,7 +5616,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10866382" y="5267325"/>
+          <a:off x="10866382" y="5981700"/>
           <a:ext cx="1429736" cy="752475"/>
           <a:chOff x="10428232" y="3006944"/>
           <a:chExt cx="1229711" cy="630622"/>
@@ -5923,7 +5947,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1509560</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>34057</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1005916" cy="172227"/>
@@ -6140,7 +6164,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>117445</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>41384</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="865173" cy="172227"/>
@@ -6415,7 +6439,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1720412</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="466025" cy="172227"/>
@@ -6603,7 +6627,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1509560</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>34057</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1005916" cy="172227"/>
@@ -6820,7 +6844,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>117445</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>41384</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="865173" cy="172227"/>
@@ -7095,7 +7119,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1720412</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="466025" cy="172227"/>
@@ -7557,10 +7581,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2CF6BDB-659A-4764-84C8-A020DF2BD027}">
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7591,13 +7615,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B2" s="18">
+        <v>147</v>
+      </c>
+      <c r="B2" s="17">
         <v>70</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
@@ -7608,7 +7632,7 @@
       <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="17">
         <v>84</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -7621,22 +7645,22 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B4" s="7">
         <v>3652</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B5" s="2">
         <v>6</v>
@@ -7644,33 +7668,33 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="17">
         <v>70</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
@@ -7681,11 +7705,11 @@
       <c r="A8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="17">
         <v>45</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
@@ -7694,64 +7718,64 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="B9" s="2">
         <v>83.3</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="B10" s="7">
         <v>90</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="11" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B11" s="2">
         <v>-1.65</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B16">
         <f>ACOS(30/B3)</f>
@@ -7760,19 +7784,19 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B17">
         <f>SQRT(B3*B3+35*35-2*B3*35*COS(0.5*PI()-B16))</f>
         <v>52.808970176843545</v>
       </c>
       <c r="D17" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B18">
         <f>ACOS(B8/B3)</f>
@@ -7781,7 +7805,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B19">
         <f>SQRT(B3*B3+35*35-2*B3*35*COS(0.5*PI()-B18))</f>
@@ -7790,31 +7814,31 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B20">
         <f>(B9+3)/引込!B13</f>
         <v>4.1095238095238091</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B21">
-        <f>引込!B5+引込!B25*2*3</f>
+        <f>引込!B5+引込!B31*2*3</f>
         <v>969.41531628991834</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="B22">
         <f>(B19-B17)*6</f>
@@ -7823,7 +7847,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B23">
         <f>B22/(B21/1000*PI())</f>
@@ -7832,106 +7856,106 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="B24" s="13">
         <f>B9-B23</f>
         <v>73.89238772874414</v>
       </c>
       <c r="C24" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="B25" s="13">
         <f>B10-B24</f>
         <v>16.10761227125586</v>
       </c>
       <c r="C25" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>203</v>
-      </c>
-      <c r="B26" s="23">
+        <v>192</v>
+      </c>
+      <c r="B26" s="21">
         <f>B24/引込!B13</f>
         <v>3.5186851299401973</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>204</v>
-      </c>
-      <c r="B27" s="23">
+        <v>193</v>
+      </c>
+      <c r="B27" s="21">
         <f>B25/主巻!B14</f>
         <v>0.76702915577408859</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="B28">
         <f>引込!B5/1000*PI()*(引込!B13-3)</f>
         <v>40.715040790523723</v>
       </c>
       <c r="D28" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="B29">
-        <f>(引込!B5+引込!B25)*PI()/1000*引込!B13</f>
+        <f>(引込!B5+引込!B31)*PI()/1000*引込!B13</f>
         <v>50.243345560999806</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="B30">
-        <f>(引込!B5+引込!B25*2)*PI()/1000*引込!B13</f>
+        <f>(引込!B5+引込!B31*2)*PI()/1000*引込!B13</f>
         <v>52.985810199721953</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="B31">
-        <f>(引込!B5+引込!B25*3)*PI()/1000*引込!B13</f>
+        <f>(引込!B5+引込!B31*3)*PI()/1000*引込!B13</f>
         <v>55.728274838444086</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="B32">
-        <f>(引込!B5+引込!B25*4)*PI()/1000*引込!B13</f>
+        <f>(引込!B5+引込!B31*4)*PI()/1000*引込!B13</f>
         <v>58.470739477166219</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="B33">
-        <f>(引込!B5+引込!B25*5)*PI()/1000*引込!B13</f>
+        <f>(引込!B5+引込!B31*5)*PI()/1000*引込!B13</f>
         <v>61.21320411588836</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="B35">
         <f>B3*(SIN(B18)-SIN(B16))</f>
@@ -7940,7 +7964,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="B36">
         <f>B22/4</f>
@@ -7949,7 +7973,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="B37" s="12">
         <f>B7-B11+B35+B36</f>
@@ -7958,115 +7982,115 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B38">
         <f>B37*4</f>
         <v>285.12840485701633</v>
       </c>
       <c r="D38" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="B39">
         <f>主巻!B5*PI()*(主巻!B13-3)/1000</f>
         <v>60.770968291040951</v>
       </c>
       <c r="D39" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="B40">
-        <f>(主巻!B5+主巻!B27)*PI()*主巻!B13/1000</f>
+        <f>(主巻!B5+主巻!B28)*PI()*主巻!B13/1000</f>
         <v>71.09221058220642</v>
       </c>
       <c r="D40" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="B41">
-        <f>(主巻!B5+主巻!B27*2)*PI()*主巻!B13/1000</f>
+        <f>(主巻!B5+主巻!B28*2)*PI()*主巻!B13/1000</f>
         <v>75.53239142585177</v>
       </c>
       <c r="D41" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B42">
-        <f>(主巻!B5+主巻!B27*3)*PI()*主巻!B13/1000</f>
+        <f>(主巻!B5+主巻!B28*3)*PI()*主巻!B13/1000</f>
         <v>79.972572269497149</v>
       </c>
       <c r="D42" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="B43">
-        <f>(主巻!B5+主巻!B27*4)*PI()*主巻!B13/1000</f>
+        <f>(主巻!B5+主巻!B28*4)*PI()*主巻!B13/1000</f>
         <v>84.4127531131425</v>
       </c>
       <c r="D43" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B44">
-        <f>(主巻!B5+主巻!B27*5)*PI()*主巻!B13/1000</f>
+        <f>(主巻!B5+主巻!B28*5)*PI()*主巻!B13/1000</f>
         <v>88.852933956787879</v>
       </c>
       <c r="D44" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="B45" s="13">
-        <f>主巻!B13*3</f>
-        <v>102</v>
+        <f>主巻!B13*2+70*主巻!B7/((主巻!B5+主巻!B28*3)/1000*PI())</f>
+        <v>187.04081274163397</v>
       </c>
       <c r="D45" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="E45" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>218</v>
-      </c>
-      <c r="B46" s="25">
+        <v>206</v>
+      </c>
+      <c r="B46" s="27">
         <f>B45/主巻!B13</f>
-        <v>3</v>
+        <v>5.5012003747539406</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="B48">
         <f>B3*SIN(B18)+35</f>
@@ -8079,162 +8103,195 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>217</v>
-      </c>
-      <c r="B49" s="22">
+        <v>205</v>
+      </c>
+      <c r="B49" s="20">
         <f>(B48-B2)*4</f>
         <v>143.71817002088534</v>
       </c>
       <c r="D49" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="B51" s="13">
-        <f>B39+B40+B25*引込!B5/1000*PI()+B49</f>
-        <v>312.01590948647288</v>
+        <f>B39+B40+B41+B42+B43+B25*引込!B5/1000*PI()+B49</f>
+        <v>551.93362629496437</v>
       </c>
       <c r="D51" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" s="22" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>201</v>
-      </c>
-      <c r="B52" s="26">
+        <v>190</v>
+      </c>
+      <c r="B52" s="23">
         <f>B19*引込!B7+B28+B29+B30+B31*(B26-3)</f>
         <v>518.35440385928769</v>
       </c>
       <c r="C52"/>
       <c r="D52" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>199</v>
-      </c>
-      <c r="B53" s="26">
+        <v>188</v>
+      </c>
+      <c r="B53" s="23">
         <f>PI()*B4/1000</f>
         <v>11.473096370909925</v>
       </c>
       <c r="D53" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>197</v>
-      </c>
-      <c r="B54" s="27">
+        <v>186</v>
+      </c>
+      <c r="B54" s="24">
         <v>1000</v>
       </c>
       <c r="D54" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="B57">
         <f>(98.4-70)*4</f>
         <v>113.60000000000002</v>
       </c>
       <c r="D57" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="B58">
-        <f>主巻!B13+(B57-B40)/(PI()*主巻!B5/1000)</f>
-        <v>55.683733351766705</v>
+        <f>B57/(PI()*(主巻!B5+主巻!B28*5)/1000)</f>
+        <v>43.469583141491007</v>
       </c>
       <c r="D58" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>228</v>
-      </c>
-      <c r="B59" s="13">
-        <f>10^9-B58*主巻!B16*主巻!B17*主巻!B4</f>
-        <v>996450039.94008136</v>
-      </c>
-      <c r="D59" t="s">
-        <v>234</v>
+        <v>241</v>
+      </c>
+      <c r="B59">
+        <f>B45+B58</f>
+        <v>230.51039588312497</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="B60" s="13">
-        <v>50000</v>
+        <f>10^8-B58*主巻!B16*主巻!B17*主巻!B4</f>
+        <v>97228718.789403707</v>
       </c>
       <c r="D60" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>223</v>
-      </c>
-      <c r="B61">
+        <v>222</v>
+      </c>
+      <c r="B61" s="13">
+        <v>50000</v>
+      </c>
+      <c r="D61" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
+        <v>210</v>
+      </c>
+      <c r="B62">
         <f>B17</f>
         <v>52.808970176843545</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A62" t="s">
-        <v>224</v>
-      </c>
-      <c r="B62">
-        <f>B52-B61*引込!B7</f>
-        <v>201.50058279822645</v>
-      </c>
-    </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="B63">
-        <f>4*引込!B13+(B62-B28-B29-B30-B31)/B32*引込!B13</f>
-        <v>84.656573525878983</v>
-      </c>
-      <c r="D63" t="s">
-        <v>227</v>
+        <f>B52-B62*引込!B7</f>
+        <v>201.50058279822645</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>226</v>
-      </c>
-      <c r="B64" s="13">
+        <v>212</v>
+      </c>
+      <c r="B64">
+        <f>4*引込!B13+(B63-B28-B29-B30-B31)/B32*引込!B13</f>
+        <v>84.656573525878983</v>
+      </c>
+      <c r="D64" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A65" t="s">
+        <v>213</v>
+      </c>
+      <c r="B65" s="13">
         <f>86673*1000-B23*引込!B16*引込!B17*引込!B4</f>
         <v>85167878.370548725</v>
       </c>
-      <c r="D64" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A65" t="s">
-        <v>220</v>
-      </c>
-      <c r="B65" s="13">
+      <c r="D65" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A66" t="s">
+        <v>208</v>
+      </c>
+      <c r="B66" s="13">
         <v>15000000</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D66" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A68" t="s">
+        <v>223</v>
+      </c>
+      <c r="B68">
+        <f>走行!B25</f>
+        <v>31.830988618379067</v>
+      </c>
+      <c r="D68" t="s">
         <v>221</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A69" t="s">
+        <v>224</v>
+      </c>
+      <c r="B69">
+        <f>旋回!B19</f>
+        <v>15000000</v>
+      </c>
+      <c r="D69" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -8247,10 +8304,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D415C30-1852-48AC-87AC-AC21546EABAB}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -8264,7 +8321,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -8287,7 +8344,7 @@
         <v>750</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>16</v>
@@ -8332,13 +8389,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B5" s="3">
         <v>624</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
@@ -8347,13 +8404,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B6" s="3">
         <v>720</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
@@ -8362,13 +8419,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="B7" s="2">
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
@@ -8377,13 +8434,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="B8" s="2">
         <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
@@ -8392,13 +8449,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B9" s="2">
         <v>1.5</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>38</v>
@@ -8409,13 +8466,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B10" s="2">
         <v>2.5</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>39</v>
@@ -8426,13 +8483,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B11" s="2">
         <v>1.5</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>38</v>
@@ -8443,13 +8500,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B12" s="2">
         <v>2.5</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>39</v>
@@ -8460,13 +8517,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B13" s="2">
         <v>34</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
@@ -8475,13 +8532,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B14" s="2">
         <v>21</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
@@ -8489,29 +8546,29 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="18">
         <v>24</v>
       </c>
-      <c r="C15" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19" t="s">
+      <c r="C15" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B16" s="11">
         <v>512</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>12</v>
@@ -8528,7 +8585,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>19</v>
@@ -8539,196 +8596,213 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
-        <v>98</v>
+        <v>228</v>
       </c>
       <c r="B18" s="2">
-        <v>100000000</v>
+        <f>B16*4*B4</f>
+        <v>63752.192000000003</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>100</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
+      </c>
+      <c r="B19" s="2">
+        <v>100000000</v>
       </c>
       <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="20">
-        <v>2</v>
+        <v>233</v>
+      </c>
+      <c r="B20" s="2">
+        <v>230.51</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="2" t="s">
-        <v>106</v>
-      </c>
+      <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="19">
+        <v>2</v>
+      </c>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A22" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="21">
+      <c r="B22" s="19">
         <v>128</v>
       </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A22" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B22" s="3">
-        <v>1024</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>106</v>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
-        <v>103</v>
+        <v>226</v>
       </c>
       <c r="B23" s="3">
-        <v>50000</v>
-      </c>
-      <c r="C23" s="2"/>
+        <v>512</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="D23" s="2" t="s">
-        <v>104</v>
+        <v>227</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B24" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" s="3">
+        <v>50000</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A25" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B25" s="3">
+        <f>B13*2</f>
+        <v>68</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A26" s="5"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A27" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E27" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A25" s="5"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A26" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="F26" s="5"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A27" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="B27" s="2">
+      <c r="F27" s="5"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A28" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B28" s="2">
         <f>2*B15/2*SQRT(3)</f>
         <v>41.569219381653056</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2" t="s">
+      <c r="C28" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A28" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B28" s="2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A29" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B29" s="2">
         <f>B3*1000/(2*PI()*B2/60)</f>
         <v>2801.1269984173578</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B29" s="2">
+      <c r="C29" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B30" s="2">
         <f>70*1000*9.81*(PI()*B5/1000)*(B2/60/B4)/B8/1000</f>
         <v>270.28152312500987</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A30" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B30" s="2">
+      <c r="C30" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A31" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B31" s="2">
         <f>70*1000*B5/1000/2/B8/B4</f>
         <v>350.79829098268493</v>
       </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A31" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B31" s="2">
-        <f>B28*0.5/(2*PI()*B2/60/B9)</f>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A32" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B32" s="2">
+        <f>B29*0.5/(2*PI()*B2/60/B9)</f>
         <v>26.748792481577169</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E31" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E32" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -8740,15 +8814,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{882160A8-C90F-4D71-844D-9736FC79A859}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="36.375" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.625" customWidth="1"/>
     <col min="4" max="4" width="35.625" customWidth="1"/>
     <col min="5" max="5" width="41.75" customWidth="1"/>
@@ -8779,7 +8854,7 @@
         <v>1750</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>16</v>
@@ -8815,76 +8890,76 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B5" s="2">
         <v>720</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="B7" s="2">
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B9" s="2">
         <v>1.5</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
@@ -8893,13 +8968,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
@@ -8908,13 +8983,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B11" s="2">
         <v>1.5</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
@@ -8923,13 +8998,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
@@ -8938,56 +9013,56 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B13" s="2">
         <v>21</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="18">
         <v>24</v>
       </c>
-      <c r="C15" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19" t="s">
-        <v>135</v>
+      <c r="C15" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B16" s="2">
         <v>512</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
@@ -9002,7 +9077,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
@@ -9011,164 +9086,234 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
-        <v>98</v>
+        <v>228</v>
       </c>
       <c r="B18" s="2">
-        <v>86673</v>
+        <f>B16*4*B4</f>
+        <v>159989.76000000001</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>4</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
+      </c>
+      <c r="B19" s="2">
+        <v>86673000</v>
       </c>
       <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
-        <v>10</v>
+        <v>232</v>
       </c>
       <c r="B20" s="2">
-        <v>0</v>
+        <f>B28</f>
+        <v>83.3</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="2">
-        <v>44.3</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="A21" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="2">
-        <v>83.3</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="A22" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A23" s="5"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
+      <c r="A23" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A24" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>112</v>
-      </c>
+      <c r="A24" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="B25" s="2">
+        <v>95</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="2">
+        <v>44.3</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="2">
+        <v>83.3</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29" s="5"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A30" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A31" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B31" s="2">
         <f>2*B15/2*SQRT(3)</f>
         <v>41.569219381653056</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2" t="s">
+      <c r="C31" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A26" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B26" s="2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A32" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B32" s="2">
         <f>B3*1000/(2*PI()*B2/60)</f>
         <v>491.10668154070567</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C32" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A28" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A29" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B29" s="2">
-        <f>B26*0.5/(2*PI()*B5/60/B11)</f>
+      <c r="C33" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A34" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A35" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B35" s="2">
+        <f>B32*0.5/(2*PI()*B5/60/B11)</f>
         <v>4.8851284970412863</v>
       </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E29" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E35" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -9180,10 +9325,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E54A1C-85C0-472C-BC65-E4606300F965}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -9221,7 +9366,7 @@
         <v>1800</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>16</v>
@@ -9238,7 +9383,7 @@
         <v>33</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>17</v>
@@ -9255,91 +9400,91 @@
         <v>479.4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B5" s="2">
         <v>330</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B6" s="2">
         <v>3652</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B9" s="3">
         <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>8</v>
@@ -9347,16 +9492,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B10" s="3">
         <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>8</v>
@@ -9364,16 +9509,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B11" s="3">
         <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>8</v>
@@ -9381,16 +9526,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B12" s="3">
         <v>20</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>8</v>
@@ -9398,52 +9543,52 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
+      <c r="B15" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B16" s="2">
         <v>512</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
@@ -9454,166 +9599,198 @@
         <v>4</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
-        <v>58</v>
+        <v>228</v>
       </c>
       <c r="B18" s="2">
-        <v>15000000</v>
+        <f>B16*4*B4</f>
+        <v>981811.19999999995</v>
       </c>
       <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2" t="s">
-        <v>78</v>
-      </c>
+      <c r="D18" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19">
-        <v>20432688.640000001</v>
+        <v>90</v>
+      </c>
+      <c r="B19" s="2">
+        <v>15000000</v>
       </c>
       <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="E19" s="2" t="s">
-        <v>79</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>71</v>
+        <v>233</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="2"/>
+      <c r="A21" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A22" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" s="14"/>
+      <c r="A22" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
+      <c r="A23" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A24" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>3</v>
-      </c>
+      <c r="A24" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>166</v>
+        <v>95</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A27" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A26" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B26" s="2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A29" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B29" s="2">
         <f>B3*1000/(2*PI()*B2/60)</f>
         <v>175.07043740108489</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C29" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B27" s="2" t="s">
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A31" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A32" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B32" s="2">
+        <f>B29*0.5/(2*PI()*B5/60/B11)</f>
+        <v>30.396355092701338</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A28" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A29" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B29" s="2">
-        <f>B26*0.5/(2*PI()*B5/60/B11)</f>
-        <v>30.396355092701338</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E29" s="2"/>
+      <c r="D32" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E32" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -9625,16 +9802,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4513790E-8CAC-4479-ACFA-40697550443D}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="44.875" customWidth="1"/>
-    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.625" customWidth="1"/>
     <col min="4" max="4" width="35.625" customWidth="1"/>
     <col min="5" max="5" width="41.75" customWidth="1"/>
@@ -9666,13 +9843,13 @@
         <v>1700</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F2" t="e">
         <f>B2/60/B4*PI()*#REF!/1000</f>
@@ -9688,10 +9865,10 @@
         <v>44</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>34</v>
@@ -9705,18 +9882,18 @@
         <v>88</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B5" s="2">
         <v>500</v>
@@ -9724,15 +9901,15 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -9740,7 +9917,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>
@@ -9751,7 +9928,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
@@ -9762,7 +9939,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B9" s="3">
         <v>9</v>
@@ -9770,12 +9947,12 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B10" s="3">
         <v>9</v>
@@ -9783,45 +9960,45 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B11" s="3">
         <v>9</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B12" s="3">
         <v>5</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -9829,191 +10006,245 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
+      <c r="B15" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C16" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="B16" s="2">
+        <v>512</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C17" s="2"/>
+      <c r="B17" s="2">
+        <v>4</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>166</v>
+        <v>228</v>
+      </c>
+      <c r="B18" s="2">
+        <f>B16*4*B4</f>
+        <v>180224</v>
       </c>
       <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>229</v>
+      </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B19" t="s">
-        <v>166</v>
+        <v>90</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1000000000</v>
       </c>
       <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>71</v>
+        <v>231</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="A21" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A22" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="A22" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
+      <c r="A23" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1024</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A24" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>3</v>
-      </c>
+      <c r="A24" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" s="25">
+        <f>B23*B25</f>
+        <v>32594.932345220164</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B25" s="26">
+        <f>50/(B5/1000*PI())</f>
+        <v>31.830988618379067</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2" t="s">
+      <c r="B28" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A26" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B26" s="2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B29" s="2">
         <f>B3*1000/(2*PI()*B2/60)</f>
         <v>247.15826456623751</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C29" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A30" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A27" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B27" s="2" t="s">
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A31" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A32" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B32" s="2">
+        <f>B29*0.5/(2*PI()*B2/60/B11)</f>
+        <v>6.2475553373925941</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A28" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A29" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B29" s="2">
-        <f>B26*0.5/(2*PI()*B2/60/B11)</f>
-        <v>6.2475553373925941</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E29" s="2"/>
+      <c r="D32" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E32" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Simulator.xlsx
+++ b/Simulator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SHI\source\repos\MKCC0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303677DB-8F79-446A-B4A3-CC480C3FA94A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A25B889-95CC-4545-B3A6-C9B6F5ED1064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36225" yWindow="255" windowWidth="18255" windowHeight="14085" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1965" windowWidth="18255" windowHeight="14085" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="座標系・変数名" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="245">
   <si>
     <t>パラメータ</t>
     <phoneticPr fontId="1"/>
@@ -2164,6 +2164,51 @@
     </rPh>
     <rPh sb="10" eb="12">
       <t>カイテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最高速1800rpmの時のピニオン回転rpm</t>
+    <rPh sb="0" eb="3">
+      <t>サイコウソク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カイテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>旋回1周に必要なピニオン回転数</t>
+    <rPh sb="0" eb="2">
+      <t>センカイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>シュウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>カイテンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>旋回1周に必要な分</t>
+    <rPh sb="0" eb="2">
+      <t>センカイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>シュウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>フン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2176,7 +2221,7 @@
     <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="177" formatCode="0;&quot;▲ &quot;0"/>
     <numFmt numFmtId="178" formatCode="0.00000_ "/>
-    <numFmt numFmtId="183" formatCode="0.000000_ "/>
+    <numFmt numFmtId="179" formatCode="0.000000_ "/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -2322,7 +2367,7 @@
     <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -7583,7 +7628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2CF6BDB-659A-4764-84C8-A020DF2BD027}">
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
@@ -8306,7 +8351,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D415C30-1852-48AC-87AC-AC21546EABAB}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -8816,8 +8861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{882160A8-C90F-4D71-844D-9736FC79A859}">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -8850,8 +8895,8 @@
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2">
-        <v>1750</v>
+      <c r="B2" s="7">
+        <v>1650</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>60</v>
@@ -9269,7 +9314,7 @@
       </c>
       <c r="B32" s="2">
         <f>B3*1000/(2*PI()*B2/60)</f>
-        <v>491.10668154070567</v>
+        <v>520.87072284620285</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>146</v>
@@ -9307,7 +9352,7 @@
       </c>
       <c r="B35" s="2">
         <f>B32*0.5/(2*PI()*B5/60/B11)</f>
-        <v>4.8851284970412863</v>
+        <v>5.1811968908013633</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
@@ -9325,10 +9370,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E54A1C-85C0-472C-BC65-E4606300F965}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -9792,6 +9837,33 @@
       </c>
       <c r="E32" s="2"/>
     </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B36">
+        <f>1800/B4</f>
+        <v>3.7546933667083855</v>
+      </c>
+      <c r="C36" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B37">
+        <f>B6/B5</f>
+        <v>11.066666666666666</v>
+      </c>
+      <c r="C37" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B38">
+        <f>B37/B36</f>
+        <v>2.9474222222222219</v>
+      </c>
+      <c r="C38" t="s">
+        <v>244</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9804,7 +9876,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4513790E-8CAC-4479-ACFA-40697550443D}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>

--- a/Simulator.xlsx
+++ b/Simulator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SHI\source\repos\MKCC0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A25B889-95CC-4545-B3A6-C9B6F5ED1064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64459228-9EBD-417F-9A04-7E32373C2B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1965" windowWidth="18255" windowHeight="14085" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="座標系・変数名" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="253">
   <si>
     <t>パラメータ</t>
     <phoneticPr fontId="1"/>
@@ -2209,6 +2209,77 @@
     </rPh>
     <rPh sb="8" eb="9">
       <t>フン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0.1%速度でのPGカウント数</t>
+    <rPh sb="4" eb="6">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>定格rpm/60*0.1*PGカウント＊逓倍</t>
+    <rPh sb="0" eb="2">
+      <t>テイカク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>テイバイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0.1%速度でのアブソコーダカウント数</t>
+    <rPh sb="4" eb="6">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>定格rpm/60*0.1*アブソカウント/減速比</t>
+    <rPh sb="21" eb="24">
+      <t>ゲンソクヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>速度変換係数0.1%/DA</t>
+    <rPh sb="0" eb="2">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>ヘンカンケイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>速度変換係数0.1％表現/DA値</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>旋回360°PGカウント値</t>
+    <rPh sb="0" eb="2">
+      <t>センカイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>旋回180°PGカウント値</t>
+    <rPh sb="0" eb="2">
+      <t>センカイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>アタイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3063,8 +3134,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11822244" y="403818"/>
-          <a:ext cx="1225228" cy="642251"/>
+          <a:off x="11945508" y="403818"/>
+          <a:ext cx="1225229" cy="642251"/>
           <a:chOff x="10428232" y="3006944"/>
           <a:chExt cx="1229711" cy="630622"/>
         </a:xfrm>
@@ -3394,7 +3465,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1509560</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>34057</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1005916" cy="172227"/>
@@ -3610,7 +3681,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>117445</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>41384</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="865173" cy="172227"/>
@@ -3920,7 +3991,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>838148</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>4523</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2945575" cy="368562"/>
@@ -4374,7 +4445,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1720412</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="466025" cy="172227"/>
@@ -4557,14 +4628,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>44902</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>84116</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>27212</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2672674</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>27211</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4628,7 +4699,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10447282" y="6810376"/>
+          <a:off x="11123557" y="6810376"/>
           <a:ext cx="1229711" cy="638174"/>
           <a:chOff x="10428232" y="3006944"/>
           <a:chExt cx="1229711" cy="630622"/>
@@ -5661,7 +5732,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10866382" y="5981700"/>
+          <a:off x="11028307" y="5981700"/>
           <a:ext cx="1429736" cy="752475"/>
           <a:chOff x="10428232" y="3006944"/>
           <a:chExt cx="1229711" cy="630622"/>
@@ -7628,8 +7699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2CF6BDB-659A-4764-84C8-A020DF2BD027}">
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7831,7 +7902,7 @@
       <c r="A17" t="s">
         <v>114</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="13">
         <f>SQRT(B3*B3+35*35-2*B3*35*COS(0.5*PI()-B16))</f>
         <v>52.808970176843545</v>
       </c>
@@ -7889,6 +7960,10 @@
         <f>(B19-B17)*6</f>
         <v>28.650958771059464</v>
       </c>
+      <c r="D22">
+        <f>B22/B23/PI()</f>
+        <v>0.96941531628991828</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
@@ -8054,7 +8129,7 @@
         <v>140</v>
       </c>
       <c r="B40">
-        <f>(主巻!B5+主巻!B28)*PI()*主巻!B13/1000</f>
+        <f>(主巻!B5+主巻!B29)*PI()*主巻!B13/1000</f>
         <v>71.09221058220642</v>
       </c>
       <c r="D40" t="s">
@@ -8066,7 +8141,7 @@
         <v>141</v>
       </c>
       <c r="B41">
-        <f>(主巻!B5+主巻!B28*2)*PI()*主巻!B13/1000</f>
+        <f>(主巻!B5+主巻!B29*2)*PI()*主巻!B13/1000</f>
         <v>75.53239142585177</v>
       </c>
       <c r="D41" t="s">
@@ -8078,7 +8153,7 @@
         <v>142</v>
       </c>
       <c r="B42">
-        <f>(主巻!B5+主巻!B28*3)*PI()*主巻!B13/1000</f>
+        <f>(主巻!B5+主巻!B29*3)*PI()*主巻!B13/1000</f>
         <v>79.972572269497149</v>
       </c>
       <c r="D42" t="s">
@@ -8090,7 +8165,7 @@
         <v>143</v>
       </c>
       <c r="B43">
-        <f>(主巻!B5+主巻!B28*4)*PI()*主巻!B13/1000</f>
+        <f>(主巻!B5+主巻!B29*4)*PI()*主巻!B13/1000</f>
         <v>84.4127531131425</v>
       </c>
       <c r="D43" t="s">
@@ -8102,7 +8177,7 @@
         <v>144</v>
       </c>
       <c r="B44">
-        <f>(主巻!B5+主巻!B28*5)*PI()*主巻!B13/1000</f>
+        <f>(主巻!B5+主巻!B29*5)*PI()*主巻!B13/1000</f>
         <v>88.852933956787879</v>
       </c>
       <c r="D44" t="s">
@@ -8114,7 +8189,7 @@
         <v>145</v>
       </c>
       <c r="B45" s="13">
-        <f>主巻!B13*2+70*主巻!B7/((主巻!B5+主巻!B28*3)/1000*PI())</f>
+        <f>主巻!B13*2+70*主巻!B7/((主巻!B5+主巻!B29*3)/1000*PI())</f>
         <v>187.04081274163397</v>
       </c>
       <c r="D45" t="s">
@@ -8223,7 +8298,7 @@
         <v>218</v>
       </c>
       <c r="B58">
-        <f>B57/(PI()*(主巻!B5+主巻!B28*5)/1000)</f>
+        <f>B57/(PI()*(主巻!B5+主巻!B29*5)/1000)</f>
         <v>43.469583141491007</v>
       </c>
       <c r="D58" t="s">
@@ -8349,16 +8424,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D415C30-1852-48AC-87AC-AC21546EABAB}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="42" customWidth="1"/>
-    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="35.625" customWidth="1"/>
     <col min="5" max="5" width="41.75" customWidth="1"/>
@@ -8710,7 +8785,8 @@
         <v>226</v>
       </c>
       <c r="B23" s="3">
-        <v>512</v>
+        <f>B22/B21</f>
+        <v>64</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>48</v>
@@ -8754,100 +8830,148 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A26" s="5"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
+      <c r="A26" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="5"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A28" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B28" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C28" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D28" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E28" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F27" s="5"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A28" s="2" t="s">
+      <c r="F28" s="5"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A29" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B29" s="2">
         <f>2*B15/2*SQRT(3)</f>
         <v>41.569219381653056</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2" t="s">
+      <c r="D29" s="2"/>
+      <c r="E29" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A29" s="2" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A30" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B30" s="2">
         <f>B3*1000/(2*PI()*B2/60)</f>
         <v>2801.1269984173578</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="2" t="s">
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B31" s="2">
         <f>70*1000*9.81*(PI()*B5/1000)*(B2/60/B4)/B8/1000</f>
         <v>270.28152312500987</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A31" s="2" t="s">
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A32" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B32" s="2">
         <f>70*1000*B5/1000/2/B8/B4</f>
         <v>350.79829098268493</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A32" s="2" t="s">
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A33" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B32" s="2">
-        <f>B29*0.5/(2*PI()*B2/60/B9)</f>
+      <c r="B33" s="2">
+        <f>B30*0.5/(2*PI()*B2/60/B9)</f>
         <v>26.748792481577169</v>
       </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2" t="s">
+      <c r="C33" s="2"/>
+      <c r="D33" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="E32" s="2"/>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A34" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B34" s="26">
+        <f>B2/600*B16*B17</f>
+        <v>2560</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A35" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B35" s="2">
+        <f>B2/600*B23/B4</f>
+        <v>2.5699508496899997</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -8859,16 +8983,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{882160A8-C90F-4D71-844D-9736FC79A859}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="36.375" customWidth="1"/>
-    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.625" customWidth="1"/>
     <col min="4" max="4" width="35.625" customWidth="1"/>
     <col min="5" max="5" width="41.75" customWidth="1"/>
@@ -9359,6 +9483,34 @@
         <v>154</v>
       </c>
       <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A36" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B36" s="26">
+        <f>B2/600*B16*B17</f>
+        <v>5632</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A37" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B37" s="2">
+        <f>B5/600*B26/B7</f>
+        <v>0</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E37" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -9370,16 +9522,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E54A1C-85C0-472C-BC65-E4606300F965}">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="41.875" customWidth="1"/>
-    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.625" customWidth="1"/>
     <col min="4" max="4" width="35.625" customWidth="1"/>
     <col min="5" max="5" width="41.75" customWidth="1"/>
@@ -9737,7 +9889,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
-        <v>95</v>
+        <v>239</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>66</v>
@@ -9837,30 +9989,75 @@
       </c>
       <c r="E32" s="2"/>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A33" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B33" s="26">
+        <f>B2/600*B16*B17</f>
+        <v>6144</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A34" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>252</v>
+      </c>
       <c r="B36">
+        <f>B37/2</f>
+        <v>5432688.6399999997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>251</v>
+      </c>
+      <c r="B37">
+        <f>B18*B6/B5</f>
+        <v>10865377.279999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B38">
         <f>1800/B4</f>
         <v>3.7546933667083855</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C38" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B37">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B39">
         <f>B6/B5</f>
         <v>11.066666666666666</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C39" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B38">
-        <f>B37/B36</f>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B40">
+        <f>B39/B38</f>
         <v>2.9474222222222219</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C40" t="s">
         <v>244</v>
       </c>
     </row>
@@ -9874,10 +10071,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4513790E-8CAC-4479-ACFA-40697550443D}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -10318,6 +10515,34 @@
       </c>
       <c r="E32" s="2"/>
     </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A33" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B33" s="26">
+        <f>B2/600*B16*B17</f>
+        <v>5802.666666666667</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A34" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B34" s="2">
+        <f>B2/600*B23/B4</f>
+        <v>32.969696969696969</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E34" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Simulator.xlsx
+++ b/Simulator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SHI\source\repos\MKCC0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64459228-9EBD-417F-9A04-7E32373C2B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F31BA2-9861-4CA8-83A0-3B0175A769DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30165" yWindow="330" windowWidth="22860" windowHeight="15525" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="座標系・変数名" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="255">
   <si>
     <t>パラメータ</t>
     <phoneticPr fontId="1"/>
@@ -2250,20 +2250,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>速度変換係数0.1%/DA</t>
-    <rPh sb="0" eb="2">
-      <t>ソクド</t>
-    </rPh>
-    <rPh sb="2" eb="6">
-      <t>ヘンカンケイスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>速度変換係数0.1％表現/DA値</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>旋回360°PGカウント値</t>
     <rPh sb="0" eb="2">
       <t>センカイ</t>
@@ -2280,6 +2266,49 @@
     </rPh>
     <rPh sb="12" eb="13">
       <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主巻フック重量(Kg単位）</t>
+    <rPh sb="0" eb="2">
+      <t>シュマキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジュウリョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>旋回1°のカウント値</t>
+    <rPh sb="0" eb="2">
+      <t>センカイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>位置変換係数</t>
+    <rPh sb="0" eb="2">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>ヘンカンケイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1°当りのPGカウント数</t>
+    <rPh sb="2" eb="3">
+      <t>アタ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>スウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2357,7 +2386,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -2404,11 +2433,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2439,6 +2477,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -5030,7 +5069,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1509560</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>34057</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1005916" cy="172227"/>
@@ -5247,7 +5286,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>117445</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>41384</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="865173" cy="172227"/>
@@ -5522,7 +5561,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1720412</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="466025" cy="172227"/>
@@ -5716,7 +5755,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>27918</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -5733,7 +5772,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="11028307" y="5981700"/>
-          <a:ext cx="1429736" cy="752475"/>
+          <a:ext cx="1429736" cy="990600"/>
           <a:chOff x="10428232" y="3006944"/>
           <a:chExt cx="1229711" cy="630622"/>
         </a:xfrm>
@@ -6063,7 +6102,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1509560</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>34057</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1005916" cy="172227"/>
@@ -6280,7 +6319,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>117445</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>41384</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="865173" cy="172227"/>
@@ -6555,7 +6594,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1720412</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="466025" cy="172227"/>
@@ -6743,7 +6782,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1509560</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>34057</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1005916" cy="172227"/>
@@ -6960,7 +6999,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>117445</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>41384</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="865173" cy="172227"/>
@@ -7235,7 +7274,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1720412</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="466025" cy="172227"/>
@@ -7699,8 +7738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2CF6BDB-659A-4764-84C8-A020DF2BD027}">
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7878,8 +7917,12 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B12" s="2">
+        <v>10000</v>
+      </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -7945,7 +7988,7 @@
         <v>127</v>
       </c>
       <c r="B21">
-        <f>引込!B5+引込!B31*2*3</f>
+        <f>引込!B5+引込!B32*2*3</f>
         <v>969.41531628991834</v>
       </c>
       <c r="C21" s="10" t="s">
@@ -8033,7 +8076,7 @@
         <v>195</v>
       </c>
       <c r="B29">
-        <f>(引込!B5+引込!B31)*PI()/1000*引込!B13</f>
+        <f>(引込!B5+引込!B32)*PI()/1000*引込!B13</f>
         <v>50.243345560999806</v>
       </c>
     </row>
@@ -8042,7 +8085,7 @@
         <v>196</v>
       </c>
       <c r="B30">
-        <f>(引込!B5+引込!B31*2)*PI()/1000*引込!B13</f>
+        <f>(引込!B5+引込!B32*2)*PI()/1000*引込!B13</f>
         <v>52.985810199721953</v>
       </c>
     </row>
@@ -8051,7 +8094,7 @@
         <v>197</v>
       </c>
       <c r="B31">
-        <f>(引込!B5+引込!B31*3)*PI()/1000*引込!B13</f>
+        <f>(引込!B5+引込!B32*3)*PI()/1000*引込!B13</f>
         <v>55.728274838444086</v>
       </c>
     </row>
@@ -8060,7 +8103,7 @@
         <v>198</v>
       </c>
       <c r="B32">
-        <f>(引込!B5+引込!B31*4)*PI()/1000*引込!B13</f>
+        <f>(引込!B5+引込!B32*4)*PI()/1000*引込!B13</f>
         <v>58.470739477166219</v>
       </c>
     </row>
@@ -8069,7 +8112,7 @@
         <v>199</v>
       </c>
       <c r="B33">
-        <f>(引込!B5+引込!B31*5)*PI()/1000*引込!B13</f>
+        <f>(引込!B5+引込!B32*5)*PI()/1000*引込!B13</f>
         <v>61.21320411588836</v>
       </c>
     </row>
@@ -8426,8 +8469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D415C30-1852-48AC-87AC-AC21546EABAB}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -8785,8 +8828,7 @@
         <v>226</v>
       </c>
       <c r="B23" s="3">
-        <f>B22/B21</f>
-        <v>64</v>
+        <v>512</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>48</v>
@@ -8830,17 +8872,13 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A26" s="2" t="s">
-        <v>249</v>
+      <c r="A26" s="16" t="s">
+        <v>253</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="2"/>
-      <c r="D26" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>91</v>
-      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" s="5"/>
@@ -8958,7 +8996,7 @@
       </c>
       <c r="B35" s="2">
         <f>B2/600*B23/B4</f>
-        <v>2.5699508496899997</v>
+        <v>20.559606797519997</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
@@ -8983,10 +9021,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{882160A8-C90F-4D71-844D-9736FC79A859}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -9393,124 +9431,133 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A29" s="5"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
+      <c r="A29" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A31" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B31" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C31" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D31" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E31" s="7" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A31" s="2" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A32" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B32" s="2">
         <f>2*B15/2*SQRT(3)</f>
         <v>41.569219381653056</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2" t="s">
+      <c r="D32" s="2"/>
+      <c r="E32" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A32" s="2" t="s">
+    <row r="33" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B33" s="2">
         <f>B3*1000/(2*PI()*B2/60)</f>
         <v>520.87072284620285</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C34" s="2"/>
+      <c r="C34" s="2" t="s">
+        <v>149</v>
+      </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B35" s="2">
-        <f>B32*0.5/(2*PI()*B5/60/B11)</f>
-        <v>5.1811968908013633</v>
+        <v>152</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>156</v>
       </c>
       <c r="C35" s="2"/>
-      <c r="D35" s="2" t="s">
-        <v>154</v>
-      </c>
+      <c r="D35" s="2"/>
       <c r="E35" s="2"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B36" s="2">
+        <f>B33*0.5/(2*PI()*B5/60/B11)</f>
+        <v>5.1811968908013633</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A37" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B36" s="26">
+      <c r="B37" s="26">
         <f>B2/600*B16*B17</f>
         <v>5632</v>
       </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2" t="s">
+      <c r="C37" s="2"/>
+      <c r="D37" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="E36" s="2"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A37" s="2" t="s">
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A38" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B38" s="2">
         <f>B5/600*B26/B7</f>
         <v>0</v>
       </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2" t="s">
+      <c r="C38" s="2"/>
+      <c r="D38" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="E37" s="2"/>
+      <c r="E38" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -9522,10 +9569,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E54A1C-85C0-472C-BC65-E4606300F965}">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -9899,72 +9946,77 @@
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
+      <c r="A26" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="B26" s="16">
+        <f>B42</f>
+        <v>30181.603555555554</v>
+      </c>
       <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
+      <c r="D26" s="16" t="s">
+        <v>254</v>
+      </c>
       <c r="E26" s="16"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="28"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A28" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B28" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C28" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D28" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E27" s="14" t="s">
+      <c r="E28" s="14" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A28" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A30" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B30" s="2">
         <f>B3*1000/(2*PI()*B2/60)</f>
         <v>175.07043740108489</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>156</v>
@@ -9975,90 +10027,110 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B32" s="2">
-        <f>B29*0.5/(2*PI()*B5/60/B11)</f>
-        <v>30.396355092701338</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>154</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
       <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B33" s="2">
+        <f>B30*0.5/(2*PI()*B5/60/B11)</f>
+        <v>30.396355092701338</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A34" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B33" s="26">
+      <c r="B34" s="26">
         <f>B2/600*B16*B17</f>
         <v>6144</v>
       </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A34" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="B34" s="2">
-        <v>0</v>
-      </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A35" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="E34" s="2"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A36" t="s">
-        <v>252</v>
-      </c>
-      <c r="B36">
-        <f>B37/2</f>
-        <v>5432688.6399999997</v>
-      </c>
+      <c r="E35" s="2"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B37">
+        <f>B38/2</f>
+        <v>5432688.6399999997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>249</v>
+      </c>
+      <c r="B38">
         <f>B18*B6/B5</f>
         <v>10865377.279999999</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B38">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B39">
         <f>1800/B4</f>
         <v>3.7546933667083855</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C39" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B39">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B40">
         <f>B6/B5</f>
         <v>11.066666666666666</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C40" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B40">
-        <f>B39/B38</f>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B41">
+        <f>B40/B39</f>
         <v>2.9474222222222219</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C41" t="s">
         <v>244</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>252</v>
+      </c>
+      <c r="B42">
+        <f>B38/360</f>
+        <v>30181.603555555554</v>
       </c>
     </row>
   </sheetData>
@@ -10071,10 +10143,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4513790E-8CAC-4479-ACFA-40697550443D}">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -10310,7 +10382,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>11</v>
       </c>
@@ -10325,7 +10397,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>228</v>
       </c>
@@ -10339,7 +10411,7 @@
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>90</v>
       </c>
@@ -10354,7 +10426,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>231</v>
       </c>
@@ -10365,7 +10437,7 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="18" t="s">
         <v>43</v>
       </c>
@@ -10376,7 +10448,7 @@
       <c r="D21" s="18"/>
       <c r="E21" s="18"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="18" t="s">
         <v>44</v>
       </c>
@@ -10387,7 +10459,7 @@
       <c r="D22" s="18"/>
       <c r="E22" s="18"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>226</v>
       </c>
@@ -10398,7 +10470,7 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>93</v>
       </c>
@@ -10412,7 +10484,7 @@
       </c>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>235</v>
       </c>
@@ -10426,71 +10498,76 @@
       </c>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A26" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="B26" s="16">
+        <f>B42</f>
+        <v>0</v>
+      </c>
       <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
+      <c r="D26" s="16" t="s">
+        <v>254</v>
+      </c>
       <c r="E26" s="16"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A27" s="14" t="s">
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A28" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B28" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C28" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D28" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E27" s="14" t="s">
+      <c r="E28" s="14" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A28" s="2" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2" t="s">
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A29" s="2" t="s">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A30" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B30" s="2">
         <f>B3*1000/(2*PI()*B2/60)</f>
         <v>247.15826456623751</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A30" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>156</v>
@@ -10499,49 +10576,60 @@
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B32" s="2">
-        <f>B29*0.5/(2*PI()*B2/60/B11)</f>
-        <v>6.2475553373925941</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>154</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
       <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B33" s="2">
+        <f>B30*0.5/(2*PI()*B2/60/B11)</f>
+        <v>6.2475553373925941</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A34" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B33" s="26">
+      <c r="B34" s="26">
         <f>B2/600*B16*B17</f>
         <v>5802.666666666667</v>
       </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2" t="s">
+      <c r="C34" s="2"/>
+      <c r="D34" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A34" s="2" t="s">
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A35" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B35" s="2">
         <f>B2/600*B23/B4</f>
         <v>32.969696969696969</v>
       </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2" t="s">
+      <c r="C35" s="2"/>
+      <c r="D35" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="E34" s="2"/>
+      <c r="E35" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Simulator.xlsx
+++ b/Simulator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SHI\source\repos\MKCC0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F31BA2-9861-4CA8-83A0-3B0175A769DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B6F8169-C190-4F31-BF10-EF297D2BAE5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30165" yWindow="330" windowWidth="22860" windowHeight="15525" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30510" yWindow="675" windowWidth="22860" windowHeight="15525" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="座標系・変数名" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="260">
   <si>
     <t>パラメータ</t>
     <phoneticPr fontId="1"/>
@@ -2308,6 +2308,53 @@
       <t>アタ</t>
     </rPh>
     <rPh sb="11" eb="12">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>360°のピニオン回転数</t>
+    <rPh sb="9" eb="12">
+      <t>カイテンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>360°のモータ回転数</t>
+    <rPh sb="8" eb="11">
+      <t>カイテンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>360°のPGカウント数</t>
+    <rPh sb="11" eb="12">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>定格回転数での時間(分）</t>
+    <rPh sb="0" eb="2">
+      <t>テイカク</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>カイテンスウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>フン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1rpmでの1秒間カウント数</t>
+    <rPh sb="7" eb="9">
+      <t>ビョウカン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
       <t>スウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -7738,7 +7785,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2CF6BDB-659A-4764-84C8-A020DF2BD027}">
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C14" sqref="C14:D14"/>
     </sheetView>
   </sheetViews>
@@ -8467,10 +8514,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D415C30-1852-48AC-87AC-AC21546EABAB}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:E26"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -8740,7 +8787,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>11</v>
       </c>
@@ -8757,7 +8804,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>228</v>
       </c>
@@ -8771,7 +8818,7 @@
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>90</v>
       </c>
@@ -8785,8 +8832,12 @@
       <c r="E19" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G19">
+        <f>512/60/B4</f>
+        <v>0.27412809063359994</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>233</v>
       </c>
@@ -8797,7 +8848,7 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="18" t="s">
         <v>43</v>
       </c>
@@ -8810,7 +8861,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="18" t="s">
         <v>44</v>
       </c>
@@ -8823,7 +8874,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>226</v>
       </c>
@@ -8840,7 +8891,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>93</v>
       </c>
@@ -8855,7 +8906,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>239</v>
       </c>
@@ -8871,7 +8922,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="16" t="s">
         <v>253</v>
       </c>
@@ -8880,7 +8931,7 @@
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="5"/>
@@ -8888,7 +8939,7 @@
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="7" t="s">
         <v>98</v>
       </c>
@@ -8906,7 +8957,7 @@
       </c>
       <c r="F28" s="5"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>184</v>
       </c>
@@ -8922,7 +8973,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>151</v>
       </c>
@@ -8936,7 +8987,7 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>150</v>
       </c>
@@ -8950,7 +9001,7 @@
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>152</v>
       </c>
@@ -9569,10 +9620,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E54A1C-85C0-472C-BC65-E4606300F965}">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:XFD26"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -10131,6 +10182,51 @@
       <c r="B42">
         <f>B38/360</f>
         <v>30181.603555555554</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>255</v>
+      </c>
+      <c r="B45">
+        <f>B6/B5</f>
+        <v>11.066666666666666</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>256</v>
+      </c>
+      <c r="B46">
+        <f>B45*B4</f>
+        <v>5305.36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>257</v>
+      </c>
+      <c r="B47">
+        <f>B46*B16*B17</f>
+        <v>10865377.279999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>258</v>
+      </c>
+      <c r="B48">
+        <f>B46/B2</f>
+        <v>2.9474222222222219</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>259</v>
+      </c>
+      <c r="B49" s="13">
+        <f>B16*B17/60</f>
+        <v>34.133333333333333</v>
       </c>
     </row>
   </sheetData>
